--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lgi4-Adam22.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lgi4-Adam22.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1241926666666667</v>
+        <v>0.03034166666666667</v>
       </c>
       <c r="H2">
-        <v>0.372578</v>
+        <v>0.09102499999999999</v>
       </c>
       <c r="I2">
-        <v>0.00757902233016378</v>
+        <v>0.001862306623420098</v>
       </c>
       <c r="J2">
-        <v>0.00757902233016378</v>
+        <v>0.001862306623420098</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.8328803333333333</v>
+        <v>8.521337333333333</v>
       </c>
       <c r="N2">
-        <v>2.498641</v>
+        <v>25.564012</v>
       </c>
       <c r="O2">
-        <v>0.03917234793046613</v>
+        <v>0.2943426187002489</v>
       </c>
       <c r="P2">
-        <v>0.03917234793046614</v>
+        <v>0.2943426187002489</v>
       </c>
       <c r="Q2">
-        <v>0.1034376296108889</v>
+        <v>0.2585515769222222</v>
       </c>
       <c r="R2">
-        <v>0.9309386664979999</v>
+        <v>2.3269641923</v>
       </c>
       <c r="S2">
-        <v>0.0002968880996899477</v>
+        <v>0.0005481562083602898</v>
       </c>
       <c r="T2">
-        <v>0.0002968880996899478</v>
+        <v>0.0005481562083602898</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1241926666666667</v>
+        <v>0.03034166666666667</v>
       </c>
       <c r="H3">
-        <v>0.372578</v>
+        <v>0.09102499999999999</v>
       </c>
       <c r="I3">
-        <v>0.00757902233016378</v>
+        <v>0.001862306623420098</v>
       </c>
       <c r="J3">
-        <v>0.00757902233016378</v>
+        <v>0.001862306623420098</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>14.620227</v>
       </c>
       <c r="O3">
-        <v>0.2292080450398417</v>
+        <v>0.1683364841626613</v>
       </c>
       <c r="P3">
-        <v>0.2292080450398417</v>
+        <v>0.1683364841626613</v>
       </c>
       <c r="Q3">
-        <v>0.6052416594673332</v>
+        <v>0.1478673514083333</v>
       </c>
       <c r="R3">
-        <v>5.447174935205999</v>
+        <v>1.330806162675</v>
       </c>
       <c r="S3">
-        <v>0.001737172891610146</v>
+        <v>0.0003134941494193765</v>
       </c>
       <c r="T3">
-        <v>0.001737172891610146</v>
+        <v>0.0003134941494193765</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1241926666666667</v>
+        <v>0.03034166666666667</v>
       </c>
       <c r="H4">
-        <v>0.372578</v>
+        <v>0.09102499999999999</v>
       </c>
       <c r="I4">
-        <v>0.00757902233016378</v>
+        <v>0.001862306623420098</v>
       </c>
       <c r="J4">
-        <v>0.00757902233016378</v>
+        <v>0.001862306623420098</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>46.66696899999999</v>
       </c>
       <c r="O4">
-        <v>0.7316196070296921</v>
+        <v>0.5373208971370899</v>
       </c>
       <c r="P4">
-        <v>0.7316196070296922</v>
+        <v>0.53732089713709</v>
       </c>
       <c r="Q4">
-        <v>1.931898441786889</v>
+        <v>0.4719845392472222</v>
       </c>
       <c r="R4">
-        <v>17.38708597608199</v>
+        <v>4.247860853224999</v>
       </c>
       <c r="S4">
-        <v>0.005544961338863686</v>
+        <v>0.001000656265640431</v>
       </c>
       <c r="T4">
-        <v>0.005544961338863687</v>
+        <v>0.001000656265640432</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>25.699091</v>
       </c>
       <c r="I5">
-        <v>0.5227737133000635</v>
+        <v>0.5257850852532363</v>
       </c>
       <c r="J5">
-        <v>0.5227737133000636</v>
+        <v>0.5257850852532362</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.8328803333333333</v>
+        <v>8.521337333333333</v>
       </c>
       <c r="N5">
-        <v>2.498641</v>
+        <v>25.564012</v>
       </c>
       <c r="O5">
-        <v>0.03917234793046613</v>
+        <v>0.2943426187002489</v>
       </c>
       <c r="P5">
-        <v>0.03917234793046614</v>
+        <v>0.2943426187002489</v>
       </c>
       <c r="Q5">
-        <v>7.13475582614789</v>
+        <v>72.99687452367689</v>
       </c>
       <c r="R5">
-        <v>64.21280243533101</v>
+        <v>656.971870713092</v>
       </c>
       <c r="S5">
-        <v>0.02047827378629184</v>
+        <v>0.1547609588669712</v>
       </c>
       <c r="T5">
-        <v>0.02047827378629185</v>
+        <v>0.1547609588669711</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>25.699091</v>
       </c>
       <c r="I6">
-        <v>0.5227737133000635</v>
+        <v>0.5257850852532363</v>
       </c>
       <c r="J6">
-        <v>0.5227737133000636</v>
+        <v>0.5257850852532362</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>14.620227</v>
       </c>
       <c r="O6">
-        <v>0.2292080450398417</v>
+        <v>0.1683364841626613</v>
       </c>
       <c r="P6">
-        <v>0.2292080450398417</v>
+        <v>0.1683364841626613</v>
       </c>
       <c r="Q6">
         <v>41.74739379040633</v>
@@ -818,10 +818,10 @@
         <v>375.726544113657</v>
       </c>
       <c r="S6">
-        <v>0.1198239408237262</v>
+        <v>0.08850881267669493</v>
       </c>
       <c r="T6">
-        <v>0.1198239408237263</v>
+        <v>0.08850881267669491</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>25.699091</v>
       </c>
       <c r="I7">
-        <v>0.5227737133000635</v>
+        <v>0.5257850852532363</v>
       </c>
       <c r="J7">
-        <v>0.5227737133000636</v>
+        <v>0.5257850852532362</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>46.66696899999999</v>
       </c>
       <c r="O7">
-        <v>0.7316196070296921</v>
+        <v>0.5373208971370899</v>
       </c>
       <c r="P7">
-        <v>0.7316196070296922</v>
+        <v>0.53732089713709</v>
       </c>
       <c r="Q7">
         <v>133.2554092250199</v>
@@ -880,10 +880,10 @@
         <v>1199.298683025179</v>
       </c>
       <c r="S7">
-        <v>0.3824714986900454</v>
+        <v>0.2825153137095702</v>
       </c>
       <c r="T7">
-        <v>0.3824714986900455</v>
+        <v>0.2825153137095702</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.695813999999999</v>
+        <v>7.695814000000001</v>
       </c>
       <c r="H8">
         <v>23.087442</v>
       </c>
       <c r="I8">
-        <v>0.4696472643697726</v>
+        <v>0.4723526081233437</v>
       </c>
       <c r="J8">
-        <v>0.4696472643697726</v>
+        <v>0.4723526081233436</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.8328803333333333</v>
+        <v>8.521337333333333</v>
       </c>
       <c r="N8">
-        <v>2.498641</v>
+        <v>25.564012</v>
       </c>
       <c r="O8">
-        <v>0.03917234793046613</v>
+        <v>0.2943426187002489</v>
       </c>
       <c r="P8">
-        <v>0.03917234793046614</v>
+        <v>0.2943426187002489</v>
       </c>
       <c r="Q8">
-        <v>6.409692129591333</v>
+        <v>65.57862714858935</v>
       </c>
       <c r="R8">
-        <v>57.687229166322</v>
+        <v>590.207644337304</v>
       </c>
       <c r="S8">
-        <v>0.01839718604448434</v>
+        <v>0.1390335036249174</v>
       </c>
       <c r="T8">
-        <v>0.01839718604448435</v>
+        <v>0.1390335036249174</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.695813999999999</v>
+        <v>7.695814000000001</v>
       </c>
       <c r="H9">
         <v>23.087442</v>
       </c>
       <c r="I9">
-        <v>0.4696472643697726</v>
+        <v>0.4723526081233437</v>
       </c>
       <c r="J9">
-        <v>0.4696472643697726</v>
+        <v>0.4723526081233436</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>14.620227</v>
       </c>
       <c r="O9">
-        <v>0.2292080450398417</v>
+        <v>0.1683364841626613</v>
       </c>
       <c r="P9">
-        <v>0.2292080450398417</v>
+        <v>0.1683364841626613</v>
       </c>
       <c r="Q9">
-        <v>37.50484920992599</v>
+        <v>37.504849209926</v>
       </c>
       <c r="R9">
         <v>337.543642889334</v>
       </c>
       <c r="S9">
-        <v>0.1076469313245053</v>
+        <v>0.07951417733654699</v>
       </c>
       <c r="T9">
-        <v>0.1076469313245053</v>
+        <v>0.079514177336547</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.695813999999999</v>
+        <v>7.695814000000001</v>
       </c>
       <c r="H10">
         <v>23.087442</v>
       </c>
       <c r="I10">
-        <v>0.4696472643697726</v>
+        <v>0.4723526081233437</v>
       </c>
       <c r="J10">
-        <v>0.4696472643697726</v>
+        <v>0.4723526081233436</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>46.66696899999999</v>
       </c>
       <c r="O10">
-        <v>0.7316196070296921</v>
+        <v>0.5373208971370899</v>
       </c>
       <c r="P10">
-        <v>0.7316196070296922</v>
+        <v>0.53732089713709</v>
       </c>
       <c r="Q10">
         <v>119.7134377892553</v>
@@ -1066,10 +1066,10 @@
         <v>1077.420940103298</v>
       </c>
       <c r="S10">
-        <v>0.3436031470007829</v>
+        <v>0.2538049271618792</v>
       </c>
       <c r="T10">
-        <v>0.343603147000783</v>
+        <v>0.2538049271618793</v>
       </c>
     </row>
   </sheetData>
